--- a/telefone.xlsx
+++ b/telefone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">iPhone 8 64gb Vitrine Apple Tela 4,7 Igual Zero C/ Nf-e </t>
+          <t>iPhone 14 Pro Max 512gb in Gold</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1569</v>
+        <v>1800</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2176882962-iphone-8-64gb-vitrine-apple-tela-47-igual-zero-c-nf-e-_JM?searchVariation=174200959404#searchVariation=174200959404&amp;position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/808686396932757/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
@@ -474,429 +474,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple iPhone 8 Plus 64 Gb Vitrine Impecável  10x Sem Juros</t>
+          <t>Apple iPhone 12 Pro, 256GB, Pacific Blue - Fully Unlocked</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2758566122-apple-iphone-8-plus-64-gb-vitrine-impecavel-10x-sem-juros-_JM?searchVariation=175041511022#searchVariation=175041511022&amp;position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/1156595698400629/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>iPhone XR 64gb Branco Vitrine Apple Tela 6,1 Igual Zero + Nf</t>
+          <t>iPhone 12 Pro Max 512GB Blue</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2499</v>
+        <v>800</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2206281715-iphone-xr-64gb-branco-vitrine-apple-tela-61-igual-zero-nf-_JM?searchVariation=174307247195#searchVariation=174307247195&amp;position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/620890063026736/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>iPhone 11 64gb Preto Bom - Trocafone - Celular Usado</t>
+          <t>iPhone 8 64GB</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2759</v>
+        <v>160</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2190738399-iphone-11-64gb-preto-bom-trocafone-celular-usado-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/629847888508097/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> iPhone X 64 Gb Cinza-espacial</t>
+          <t>IPHONE XS 256GB UNLOCKED</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2290</v>
+        <v>350</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753583498-iphone-x-64-gb-cinza-espacial-_JM?searchVariation=175007094941#searchVariation=175007094941&amp;position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/449614293852070/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apple iPhone XS 64gb</t>
+          <t>Apple iPhone 12 Pro</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2490</v>
+        <v>300</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753602944-apple-iphone-xs-64gb-_JM?searchVariation=175007145215#searchVariation=175007145215&amp;position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/429349809038182/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apple iPhone XS Max 256gb Dourado Pronta Entrega Vitrine</t>
+          <t>iPhone 13 Pro - 256 GB - Unlocked - Mint Condition</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3250</v>
+        <v>750</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2762739332-apple-iphone-xs-max-256gb-dourado-pronta-entrega-vitrine-_JM?searchVariation=175061533285#searchVariation=175061533285&amp;position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/383495803985164/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>iPhone 11 Pro 64 Gb Midnight Green</t>
+          <t>iPhone 11 128gb Unlocked</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3990</v>
+        <v>380</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2776195530-iphone-11-pro-64-gb-midnight-green-_JM?searchVariation=175127599687#searchVariation=175127599687&amp;position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/2212030905647191/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Usado: iPhone 13 Pro Max 128gb Grafite Excel - Cellularstore</t>
+          <t>Iphone 11 64gb Locked / T-mobile , Metro Pcs</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7800</v>
+        <v>290</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751251060-usado-iphone-13-pro-max-128gb-grafite-excel-cellularstore-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/1160154864925234/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 (128 Gb) - (product)red Vitrine Como Novo</t>
+          <t>Apple iPhone 12 64GB Blue / AT&amp;T</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5299</v>
+        <v>300</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2645533270-apple-iphone-13-128-gb-productred-vitrine-como-novo-_JM?searchVariation=174525361621#searchVariation=174525361621&amp;position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/495370655379185/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apple iPhone 12 (64 Gb) - Preto Vitrine Como Novo </t>
+          <t>iPhone 11 Pro 256GB Desbloqueado Semi Nuevo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3899</v>
+        <v>489</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2220070200-apple-iphone-12-64-gb-preto-vitrine-como-novo-_JM?searchVariation=174349953224#searchVariation=174349953224&amp;position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/804447764040200/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> iPhone 8 64 Gb Dourado Seminovo 12x Sem Juros</t>
+          <t>Apple iPhone 11 64GB Unlocked</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1570</v>
+        <v>250</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2660828764-iphone-8-64-gb-dourado-seminovo-12x-sem-juros-_JM?searchVariation=174580970185#searchVariation=174580970185&amp;position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>iPhone 11 64gb Lilás Vitrine Apple Tela 6.1 Igual Zero C/ Nf</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>3397</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2632516259-iphone-11-64gb-lilas-vitrine-apple-tela-61-igual-zero-c-nf-_JM?searchVariation=174474503394#searchVariation=174474503394&amp;position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>iPhone 8 Plus 64 Gb Prata - Vitrine - Garantia E Nf</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1799</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2644341406-iphone-8-plus-64-gb-prata-vitrine-garantia-e-nf-_JM?searchVariation=174521199892#searchVariation=174521199892&amp;position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Apple iPhone XR 128gb Vermelho Pronta Entrega Vitrine</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2700</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2762738081-apple-iphone-xr-128gb-vermelho-pronta-entrega-vitrine-_JM?searchVariation=175061531810#searchVariation=175061531810&amp;position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>iPhone XS Max 256gb Cinza Espacial Excelente - Celular Usado</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>3069</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2121825580-iphone-xs-max-256gb-cinza-espacial-excelente-celular-usado-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Apple iPhone XS 64gb Cinza Espacial Seminovo + Brindes</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2199</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2740157651-apple-iphone-xs-64gb-cinza-espacial-seminovo-brindes-_JM?searchVariation=174932698284#searchVariation=174932698284&amp;position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apple iPhone 8 64gb Preto Original Pronta Entrega Vitrine </t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1410</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2760768486-apple-iphone-8-64gb-preto-original-pronta-entrega-vitrine-_JM?searchVariation=175052703113#searchVariation=175052703113&amp;position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>iPhone 8 Plus 64gb Ouro Rose Original Mostruario Vitrine</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1930</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2762504318-iphone-8-plus-64gb-ouro-rose-original-mostruario-vitrine-_JM?searchVariation=175061116877#searchVariation=175061116877&amp;position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apple iPhone XR 64 Gb - Preto Original Promoção - Usado </t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2804065437-apple-iphone-xr-64-gb-preto-original-promoco-usado-_JM?searchVariation=175281662721#searchVariation=175281662721&amp;position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Usado: iPhone 11 128gb Preto Excelente - Trocafone</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>3349</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2678384275-usado-iphone-11-128gb-preto-excelente-trocafone-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">iPhone 8 Plus 64gb Rose Gold Impecável Bateria 100% Vitrine </t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2806565762-iphone-8-plus-64gb-rose-gold-impecavel-bateria-100-vitrine-_JM?searchVariation=175291366959#searchVariation=175291366959&amp;position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>iPhone XR 64gb Vitrine Apple Tela 6.1  Igual Zero C/ Nf-e</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2499</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2206264079-iphone-xr-64gb-vitrine-apple-tela-61-igual-zero-c-nf-e-_JM?searchVariation=174307322239#searchVariation=174307322239&amp;position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Apple iPhone 8 64gb Rose Original Pronta Entrega Vitrine</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1410</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2761053156-apple-iphone-8-64gb-rose-original-pronta-entrega-vitrine-_JM?searchVariation=175053214637#searchVariation=175053214637&amp;position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>(seminovo) Apple iPhone 11 (64gb) Amarelo - De Vitrine</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>2859</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2785250078-seminovo-apple-iphone-11-64gb-amarelo-de-vitrine-_JM?searchVariation=175175469366#searchVariation=175175469366&amp;position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=69b160c0-48b9-4e52-a78b-d471227d91de</t>
+          <t>https://www.facebook.com/marketplace/item/2340420592807534/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>

--- a/telefone.xlsx
+++ b/telefone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro Max 512gb in Gold</t>
+          <t>iPhone 12 Pro Max 512GB Blue</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/marketplace/item/808686396932757/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+          <t>https://www.facebook.com/marketplace/item/620890063026736/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
@@ -474,15 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 Pro, 256GB, Pacific Blue - Fully Unlocked</t>
+          <t>iPhone 14 Pro Max 512gb in Gold</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>750</v>
+        <v>9000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/marketplace/item/1156595698400629/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+          <t>https://www.facebook.com/marketplace/item/808686396932757/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
@@ -492,15 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>iPhone 12 Pro Max 512GB Blue</t>
+          <t>Apple iPhone 12 Pro, 256GB, Pacific Blue - Fully Unlocked</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>800</v>
+        <v>3750</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/marketplace/item/620890063026736/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+          <t>https://www.facebook.com/marketplace/item/1156595698400629/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>iPhone 8 64GB</t>
+          <t>Iphone 11 64gb Locked / T-mobile , Metro Pcs</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>160</v>
+        <v>1450</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/marketplace/item/629847888508097/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+          <t>https://www.facebook.com/marketplace/item/1160154864925234/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
@@ -528,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IPHONE XS 256GB UNLOCKED</t>
+          <t>Apple iPhone 12 Pro</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/marketplace/item/449614293852070/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+          <t>https://www.facebook.com/marketplace/item/429349809038182/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
@@ -546,123 +546,3205 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 Pro</t>
+          <t>iPhone 8 64GB</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/marketplace/item/429349809038182/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+          <t>https://www.facebook.com/marketplace/item/629847888508097/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>iPhone 13 Pro - 256 GB - Unlocked - Mint Condition</t>
+          <t>IPHONE XS 256GB UNLOCKED</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>750</v>
+        <v>1750</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/marketplace/item/383495803985164/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+          <t>https://www.facebook.com/marketplace/item/449614293852070/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>iPhone 11 128gb Unlocked</t>
+          <t>iPhone 8 Plus 64 Gb Unlocked Desbloqueado</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>380</v>
+        <v>1900</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/marketplace/item/2212030905647191/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+          <t>https://www.facebook.com/marketplace/item/1088080655158255/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Iphone 11 64gb Locked / T-mobile , Metro Pcs</t>
+          <t>Iphone 14 max pro max 256gb Deep Purple/ Purpura</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>290</v>
+        <v>7475</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/marketplace/item/1160154864925234/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+          <t>https://www.facebook.com/marketplace/item/5606791446045147/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 64GB Blue / AT&amp;T</t>
+          <t>iPhone 13 Pro - 256 GB - Unlocked - Mint Condition</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>300</v>
+        <v>3750</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/marketplace/item/495370655379185/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+          <t>https://www.facebook.com/marketplace/item/383495803985164/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>iPhone 11 Pro 256GB Desbloqueado Semi Nuevo</t>
+          <t>Iphone 14 max pro max 128</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>489</v>
+        <v>6975</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/marketplace/item/804447764040200/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+          <t>https://www.facebook.com/marketplace/item/620052726398911/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 64GB / T-Mobile</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1375</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1052619662076531/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>iPhone 11 128gb Unlocked</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/2212030905647191/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 64GB Blue / AT&amp;T</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/495370655379185/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Apple iPhone 11 64GB Unlocked</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/2340420592807534/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>iPhone 14 Pro Max 512gb</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/628303748865747/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>iPhone 14 Pro/Pro Max, For sale!!! FINANCING!!!</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4450</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/492604286019709/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Apple iPhone X 256GB Silver Unlocked Nacional</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1367666077042877/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I Need to Sell
+My Brand New iphone 14 Pro Urgently Mint 
+Condition Original Bill Included </t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3250</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/766191484667860/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>iPhone 12, 128GB</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1267939450703323/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>iPhone 12 64GB DESBLOQUEADO</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2450</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1107692296840792/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>iPhone 11 Pro Max 64GB locked t - mobile, US sprint</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/415624644047468/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IPHONE SE2 64G BLK</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/740334560364030/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>iPhone 8 Plus like new</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1193241708135994/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>iPhone 12 64GB</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/446320510769152/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>iPhone 12 Pro Max 128gb 256gb OPEN BOX</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4445</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1297514257448275/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>8 plus iPhone unlocked 64GB like new</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/2935242663407773/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sell iPhone 12 Pro Max New Or Used Buyer</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2750</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/715995256183765/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Get C@sh For iPhone 8 and 12 Pro Max</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1530621770693632/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Iphone 14 max pro max</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/3290623511190258/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Apple iPhone XR 128GB</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/547701239837985/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 64GB Unlocked</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1893610277696339/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Iphone 12 Pro</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2700</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/445289454284363/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Black Iphone 11 128 GB unlocked for sale</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/698593078148190/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>iPhone 11 Pro 64GB Desbloqueado Como Nuevo</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2150</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1179415695979793/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>IPhone 11 Pro Max</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/738763513901354/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 Pro Max 64GB</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/661097084958578/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 128GB Unlocked Battery Al 100%</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1287991958608827/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>iPhone 14 Pro</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>6250</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1239221380188057/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>iPhone 11 Pro 64GB Desbloqueado Como nuevo</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2125</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/6198606026822153/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Apple Iphone 14 Pro Max 128 Gb</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>6900</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/2477356059073848/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Apple iPhone X</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/598475795019119/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Iphone 13 pro max sierra blue 128gb</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/5841559495875391/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Apple iphone 12 64gb unlocked + Tempered Glass 🎁</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/737718114595077/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 Pro 256GB</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2350</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/561908762399660/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>iPhone 12 64GB BATERÍA 100% DESBLOQUEADO 100%</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2350</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1305369903603572/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>IPHONE XS MAX</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/759055125383391/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Iphone 13 Pro max</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/3410556272510726/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SE VENDE IPHONE 8 O SE CAMBIA POR 11 O 12 Y SE DA EL RESTANTE</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>500</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1036090590393655/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>iPhone 13 Pro Max 128 UNLOCKED Perfect Amazing Condition</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4750</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/5463717663695161/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 64GB</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/448958393288194/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Iphone XR</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2350</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/183791037216698/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Apple iPhone XR 64GB</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/488842182127233/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Apple iphone xr 64gb white AT&amp;T</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/3965948400296424/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>iPhone 8plus</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/382556340415808/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Iphone 11</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2050</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/555495905940046/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Apple iPhone XS Max 64GB Gold Locked</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1043617556258587/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>iPhone 11 pro max 64gb</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/670899927496261/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>iphone 13</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2750</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/751634832887871/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Iphone 12 64gb Unlocked 💯</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1696559650683687/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 - blue - 5G smartphone - 128 GB - CDMA / GSM</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/2145313785645877/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Apple iPhone Pro 13</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>3750</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/473942331081854/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>iPhone 12 64gb unlocked + cover free🎁</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1275385842869731/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>iPhone 12 Pro Max</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1021886981741231/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Apple iphone 12 pro max 128gb unlocked</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1715632962122653/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 Pro Max 128gb unlocked + cover 🎁</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4250</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/409439950790363/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 Pro Max 64GB Black Unlocked</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3400</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/682898859432854/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Apple iphone 12 pro max 128gb</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>4250</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/561618242043288/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Apple iphone 12 128gb unlocked</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/750758109423700/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iPhone 11 Red Edition T-Mobile Metro Sprint Lycamobile Simplemobile Familymobile Carriers ONLY! </t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1316248262231587/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>iPhone 13 Pro Max 256gb Unlocker Silver read description</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/827178978458112/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 Pro Max 128GB Pacific Blue Unlocked</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>3375</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/5352758068179154/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>iPhone 13 Pro Max Unlocked 256GB</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1830713953926750/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Apple iPhone XS 64GB</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/773245133894218/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 Pro Max - 512GB - Pacific Blue Unlocked</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/616958776722437/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 Pro 512GB Unlocked</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>4250</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/3268196143438129/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 Pro Max 64GB</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/868154840840854/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>iPhone 12 128GB</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2750</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1138598000081308/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>iPhone 13 AT&amp;T</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/3267139996880089/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Apple iPhone 8 64GB</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/937320870432354/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>iPhone 11 Pro Max 256gb</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1452973308530340/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>iPhone 11 Black 128GB</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/3109862832603671/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Apple iPhone 📲 8 64GB (Factory Unlocked)</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>900</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/844521126413317/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Iphone 12 unlocked</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/737033134345902/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 Pro Max 256GB Graphite</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4050</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/4727044167398768/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>iPhone</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/514406559994878/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>I Phone Esta Desbloqueado FUNCINANDO Bien Solo El Screen Roto Se Puede Reparar 
+$ 95 firm</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>475</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/221274106195719/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>iPhone 8 Plus unlocked</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>475</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1033982263853224/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>iPhone XS 64 gb very good good condition black</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1132251407430790/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Apple iPhone XR 64GB</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/462762102032945/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 Pro Max 64gb</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/2303907683097715/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>iPhone 11 64GB White + Cable + Charger + Headphones + Warranty</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/771471177433534/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Factory unlocked iphone 11 Pro 256gb</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/851170612531753/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Iphone 12 pro max</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1509045866210490/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Iphone 14 Pro 256GB Unlocked</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/651056719928225/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 Pro</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/623871062693501/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>IPhone 11 compañía Tmovile original Trae su sim y lo activa ‼️</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/414433824131016/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>IPhone 12 pro max T-movile Gold</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>3795</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/505362738087044/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Apple iPhone XS Max 256 gb unlocked</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/3388978354665373/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Iphone 11 64gb unlocked</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2450</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/787829435925346/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>IPHONE 12 T-MOBILE</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/5528268640551979/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>✔️iPhone 12 normal Compañía T-MOVILE en buena condición batería 82% cero fallas</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/429238385858858/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 Mayoreo 🛍🛍📱📱 Wholesale</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/432243011573533/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>iPhone</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/788119032509167/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>iPhone 11 Pro Max 64GB locked T mobile, US Sprint</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/369924585208567/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Apple iPhone 8 Plus 64GB</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/808327810580667/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Iphone 12 128 gb unlocked</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/2945784929048108/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>IPhone 11 Pro Max 
+512 GB unlocked</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/596416015509545/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>iphone XR</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/608720550775080/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>IPHONE 6S PLUS 32GB IN THE BOX WITH CHARGER</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>845</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/397148245928727/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Apple Iphone 12 64GB Space Gray Black GSM Factory Unlocked. Financing Options!</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2295</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/804796467638670/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>IPHONE 7+ PLUS 32GB UNLOCKED</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>750</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/444727771056742/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>iPhone 12 Pro Max 128gb 256gb</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>3825</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/759547811785666/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Apple iPhone 8 Plus 256GB Unlocked</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/784242169369304/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>iPhone XR red 64gb Unlocked Metropcs AT&amp;T Verizon T-Mobile Sprint Boost Lycamobile Cricket Straight</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/808893710464698/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Venta Iphone 11 64gb Unlocked 💯</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/597456361865777/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2395</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/855850202465843/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>iphone 7 plus</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>900</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/624054819090462/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2495</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/786091876038640/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Apple iPhone 8 Plus</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1745</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/3384264885134768/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Apple iPhone Xs max all carriers</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2245</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/663727538145466/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Apple iPhone 8 Plus 64GB</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/473162067939994/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>New iPhone 13</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1090961451789704/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>IPhone 13 Pro Max Unlocked 256 👌New condition</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/727748235138818/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Iphone 11 64gb Unlockee</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2450</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/760903051496969/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Iphone 11 64gb unlocked</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/409218117614636/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>iPhone 13 pro max lates color</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/727961985131602/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Apple iPhone 8 + (repair stock)</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>750</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/370013308171430/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>4-Pak Rsim | unlock your iPhone TODAY</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>500</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/219648233608565/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Iphone 11 64GB Unlocked</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1457390481391845/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Apple Iphone 11 64gb Unlocked</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1401987776992206/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Apple iPhone XS 64GB</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/456558536497486/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>IPhone X</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1150887338793864/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 128GB Purple Unlocked</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/944530320283089/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Apple Iphone 13</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1133576744246256/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>iPhone X 64GB Unlocked</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>875</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/497112041815348/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>iPhone 11 Pro 64GB Green + Cable + Charger + Headphones + Warranty</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/468663981798800/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Apple iPhone XS 64GB</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/646008023546454/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 Pro 256GB</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2450</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/802912294492451/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 Pro Max Unlocked 128 GB Silver</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>3250</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/2804772226333661/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>iPhone 8 64GB Black + Cable + Charger + Headphones + Warranty</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>895</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/616617746586036/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 Pro 256GB Matte Midnight Green</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1248591135920481/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>iPhone Por Mayor | iPhone 11 , 11 Pro , 11 Pro Max , + Mas</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/461702336017205/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>✔️iPhone 12 pro max Compañía T-MOVILE lo prueba al momento bateria 92% en buena condición</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>3795</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/762103818347820/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Apple iphone 8 plus 64gb unlocked</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/618645106508588/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Unlocked iPhone 8 64GB</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>4750</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/477159437642684/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>iPhone 8 Plus 256 G</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1475</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/323470683106878/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 64GB Unlocked</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1875</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1145973772627629/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Apple Iphone 14 Plus 256gb Unlock Top B.uyer C.ash For We Also Trade Sell My</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2875</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1179893062602551/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>IPHONE 12 AT&amp;T - CRICKET</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/541024207823006/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Apple iPhone 8 64gb factory unlock</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>900</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/521018226394646/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>iPhone XR unlock</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/446594780733596/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Iphone 13 128gb blue</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/471028661573776/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12Mini</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2495</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/784457282979739/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>iphone 11</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/671122903997405/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 64GB</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1176686952821603/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Apple iPhone XS Max 64GB Gold Unlocked</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/625785165310946/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Iphone 7</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>650</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/888439601726169/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>iPhone XR 64 gb - Black - Open Box - Charger Cable Wired Earbuds - Screen Protector Included</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1525</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/362352278868358/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>iPhone XR 64gb Unlocked</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/574033140882172/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>iPhone X 256GB Unlocked</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>925</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/800347937771678/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 64GB Black T-Mobile</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1375</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/445824040911566/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>IPHONE 7 ROSE GOLD</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>825</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1059455631413085/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Apple iphone 11 64gb T-Mobile / Metro Pcs</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/3242341032692111/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Apple IPhone 12</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/617495273405766/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Apple iPhone XS Max 256GB</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/563612655562069/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>iPhone 13 Pro 128GB Silver Unlocked + MagSafe Leather Case</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>4250</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/619880619617781/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Apple iPhone XS Max 256GB</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/478124927678866/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>iPhone 11 negro Desbloqueado para T-MOVILE nada más en Exelente condición</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/959815985420424/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Apple iPhone XR 128GB White</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1490789614677761/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 Pro Max 64GB</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/629320165264521/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/marketplace/item/2340420592807534/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Apple iPhone XS Max</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/419541216946639/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>IPHONE X 256GB UNLOCKED DESBLOQUEADO</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1118543092203455/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Iphone 12 pro max</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1907366742800926/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Unlocked iPhone X 64GB White Great Condition</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1475</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/521367363127339/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>iPhone 11 64gb para T-Mobile / Metro pcs / simple mobile</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/534550348438836/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Iphone xs max 256gb</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/2304750726357029/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Apple Iphone 11 (64GB - Red Product) Unlocked GSM Like New Conditions. Financing Available!</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1595</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/439775964640576/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>iPhone 13-pink</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>4250</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/390153696628181/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>iPhone 13 pro max 128gb unlocked</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>4750</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1026068824721891/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Iphone 11 Pro Max</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1081655735794018/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>IPHONE 8</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>500</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/653653612600665/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Selling iPhone 12 Pro</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/marketplace/item/1963799583809740/?hoisted=false&amp;ref=search&amp;referral_code=null&amp;referral_story_type=post&amp;__tn__=!%3AD</t>
         </is>
       </c>
     </row>
